--- a/Documents/二进制指令&控制信号.xlsx
+++ b/Documents/二进制指令&控制信号.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\wksp\cpu\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9515F445-8116-457F-9E8C-9566A0BCD485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5679D185-1F9E-4977-9ECF-385D8E404B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="0" windowWidth="12800" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="183">
   <si>
     <t>R-type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -525,10 +525,6 @@
   </si>
   <si>
     <t>1111</t>
-  </si>
-  <si>
-    <t>?没看懂，救命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>信号名</t>
@@ -804,27 +800,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -833,10 +823,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1133,18 +1123,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="E79" sqref="C77:E79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="8.6640625" style="1"/>
-    <col min="3" max="3" width="20.58203125" customWidth="1"/>
+    <col min="3" max="3" width="20.59765625" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1167,7 +1157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1175,255 +1165,255 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>64</v>
       </c>
@@ -1437,891 +1427,838 @@
         <v>66</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="1">
         <v>1</v>
       </c>
-      <c r="E44" s="7"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="5"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="1">
         <v>0</v>
       </c>
-      <c r="E45" s="7"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E46" s="7"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="5"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E47" s="7"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="5"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E48" s="7"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E48" s="6"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="5"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E49" s="7"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E50" s="6"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51" s="5"/>
+      <c r="C51" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E50" s="7"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="5"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6" t="s">
+      <c r="D51" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E51" s="6"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52" s="5"/>
+      <c r="C52" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E51" s="7"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="5"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6" t="s">
+      <c r="D52" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E52" s="6"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53" s="5"/>
+      <c r="C53" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D52" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E52" s="7"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="5"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E53" s="7"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E53" s="6"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="5"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E54" s="7"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E54" s="6"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C55" s="15" t="s">
+      <c r="B55" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E55" s="6"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56" s="5"/>
+      <c r="C56" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E55" s="7"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="5"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E56" s="7"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E56" s="6"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B57" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" t="s">
         <v>68</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D57" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E57" s="7"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" s="5"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="8" t="s">
+      <c r="C58" t="s">
         <v>101</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E58" s="7"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" s="5"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="8" t="s">
+      <c r="C59" t="s">
         <v>102</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E59" s="7"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" s="5"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="8" t="s">
+      <c r="C60" t="s">
         <v>103</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E60" s="7"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E60" s="6"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" s="5"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="8" t="s">
+      <c r="C61" t="s">
         <v>104</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E61" s="7"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E61" s="6"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" s="5"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="8" t="s">
+      <c r="C62" t="s">
         <v>105</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E62" s="7"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E62" s="6"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" s="5"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="8" t="s">
+      <c r="C63" t="s">
         <v>106</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E63" s="7"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E63" s="6"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" s="5"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="8" t="s">
+      <c r="C64" t="s">
         <v>107</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D64" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E64" s="7"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E64" s="6"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" s="5"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="8" t="s">
+      <c r="C65" t="s">
         <v>108</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D65" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="7"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E65" s="6"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" s="5"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="8" t="s">
+      <c r="C66" t="s">
         <v>109</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E66" s="7"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E66" s="6"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" s="5"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="8" t="s">
+      <c r="C67" t="s">
         <v>110</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D67" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E67" s="7"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E67" s="6"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" s="5"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="8" t="s">
+      <c r="C68" t="s">
         <v>111</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D68" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E68" s="7"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E68" s="6"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" s="5"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="8" t="s">
+      <c r="C69" t="s">
         <v>112</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D69" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E69" s="7"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E69" s="6"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" s="5"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="8" t="s">
+      <c r="C70" t="s">
         <v>113</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D70" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E70" s="7"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E70" s="6"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" t="s">
         <v>68</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D71" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E71" s="7"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E71" s="6"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="8" t="s">
+      <c r="C72" t="s">
         <v>128</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D72" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E72" s="7"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E72" s="6"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" s="5"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="8" t="s">
+      <c r="C73" t="s">
         <v>129</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D73" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E73" s="7"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E73" s="6"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" s="5"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="8" t="s">
+      <c r="C74" t="s">
         <v>130</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D74" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E74" s="7"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E74" s="6"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" s="5"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="8" t="s">
+      <c r="C75" t="s">
         <v>128</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="D75" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E75" s="7"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E75" s="6"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="D76" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E76" s="7"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E76" s="6"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" s="5"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="8" t="s">
+      <c r="C77" t="s">
         <v>123</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="D77" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E77" s="7"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E77" s="6"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" s="5"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="8" t="s">
+      <c r="C78" t="s">
         <v>124</v>
       </c>
-      <c r="D78" s="6" t="s">
+      <c r="D78" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E78" s="7"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E78" s="6"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" s="5"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="8" t="s">
+      <c r="C79" t="s">
         <v>125</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="D79" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E79" s="7"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E79" s="6"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" t="s">
         <v>131</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="D80" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E80" s="7"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E80" s="6"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" s="5"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="8" t="s">
+      <c r="C81" t="s">
         <v>132</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="D81" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E81" s="7"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E81" s="6"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" t="s">
         <v>137</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="D82" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E82" s="7"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E82" s="6"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" s="5"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="8" t="s">
+      <c r="C83" t="s">
         <v>138</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="D83" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E83" s="7"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E83" s="6"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C84" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D84" s="6" t="s">
+      <c r="C84" t="s">
+        <v>152</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E84" s="7"/>
-      <c r="G84" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E84" s="6"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" s="5"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D85" s="6" t="s">
+      <c r="C85" t="s">
+        <v>151</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E85" s="7"/>
-      <c r="G85" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E85" s="6"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" s="5"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="8" t="s">
+      <c r="C86" t="s">
         <v>68</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="D86" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E86" s="7"/>
-      <c r="G86" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E86" s="6"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" t="s">
+        <v>149</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E87" s="6"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A88" s="5"/>
+      <c r="C88" t="s">
         <v>150</v>
       </c>
-      <c r="D87" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E87" s="7"/>
-      <c r="G87" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="5"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D88" s="6" t="s">
+      <c r="D88" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E88" s="7"/>
-      <c r="G88" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E88" s="6"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89" s="5"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="8" t="s">
+      <c r="C89" t="s">
         <v>68</v>
       </c>
-      <c r="D89" s="6" t="s">
+      <c r="D89" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E89" s="7"/>
-      <c r="G89" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E89" s="6"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" t="s">
         <v>143</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="D90" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E90" s="7"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="9"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="11" t="s">
+      <c r="E90" s="6"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A91" s="7"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D91" s="10" t="s">
+      <c r="D91" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E91" s="12"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="18" t="s">
+      <c r="E91" s="10"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A101" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B101" s="18" t="s">
+      <c r="B101" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C101" s="19" t="s">
+      <c r="C101" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="D101" s="19" t="s">
+      <c r="D101" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E101" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="F101" s="19" t="s">
+      <c r="E101" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F101" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="G101" s="19" t="s">
+      <c r="G101" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="H101" s="19" t="s">
+      <c r="H101" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="I101" s="20" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="16" t="s">
+      <c r="I101" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A102" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B102" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C102" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E102" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="F102" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G102" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="H102" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="I102" s="18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A103" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="B102" s="21" t="s">
+      <c r="B103" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C102" s="21" t="s">
+      <c r="C103" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="D102" s="21" t="s">
+      <c r="D103" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E103" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F103" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G103" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="H103" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="I103" s="18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A104" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C104" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E104" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G104" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="H104" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="I104" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A105" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B105" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C105" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D105" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E105" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F105" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G105" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="H105" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="I105" s="18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A106" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B106" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E106" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="F106" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G106" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="H106" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="I106" s="18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A107" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B107" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E107" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F107" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G107" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="H107" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="I107" s="18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A108" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B108" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C108" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E108" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F108" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G108" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="H108" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="I108" s="18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A109" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B109" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C109" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E109" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="F109" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G109" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="H109" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="I109" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="E102" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="F102" s="21" t="s">
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A110" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B110" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C110" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D110" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="E110" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="F110" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="G102" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="H102" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="I102" s="22" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="B103" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C103" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="D103" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="E103" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="F103" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="G103" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="H103" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="I103" s="22" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C104" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E104" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="F104" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G104" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="H104" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="I104" s="13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="B105" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C105" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="D105" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="E105" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="F105" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="G105" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="H105" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="I105" s="22" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A106" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="B106" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C106" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="D106" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="E106" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="F106" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="G106" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="H106" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="I106" s="22" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="B107" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="C107" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="D107" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="E107" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="F107" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="G107" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="H107" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="I107" s="22" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="B108" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="C108" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="D108" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="E108" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="F108" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="G108" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="H108" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="I108" s="22" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="B109" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="C109" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="D109" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="E109" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="F109" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="G109" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="H109" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="I109" s="22" t="s">
+      <c r="G110" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="H110" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="I110" s="21" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="B110" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="C110" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="D110" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="E110" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="F110" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="G110" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="H110" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="I110" s="25" t="s">
-        <v>172</v>
       </c>
     </row>
   </sheetData>
